--- a/Succes.xlsx
+++ b/Succes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Plus que 999 heures de jeux</t>
   </si>
@@ -319,6 +319,54 @@
   </si>
   <si>
     <t>Obtenez 10 médailles de Quad</t>
+  </si>
+  <si>
+    <t>Clear 50 chansons différentes</t>
+  </si>
+  <si>
+    <t>Clear 600 chanson différentes</t>
+  </si>
+  <si>
+    <t>Clear 250 chansons différentes</t>
+  </si>
+  <si>
+    <t>Battez le boss 1</t>
+  </si>
+  <si>
+    <t>Battez le boss 2</t>
+  </si>
+  <si>
+    <t>Battez le boss 3</t>
+  </si>
+  <si>
+    <t>Battez le boss 4</t>
+  </si>
+  <si>
+    <t>Battez le boss 5</t>
+  </si>
+  <si>
+    <t>Battez le boss 6</t>
+  </si>
+  <si>
+    <t>Battez le boss 7</t>
+  </si>
+  <si>
+    <t>Battez le boss 8</t>
+  </si>
+  <si>
+    <t>Finissez Cublast</t>
+  </si>
+  <si>
+    <t>Obtenez toutes les médailles de bronze dans le mode Story</t>
+  </si>
+  <si>
+    <t>Obtenez toutes les médailles d'argent dans le mode Story</t>
+  </si>
+  <si>
+    <t>Obtenez toutes les médailles d'or dans le mode Story</t>
+  </si>
+  <si>
+    <t>Obtenez toutes les médailles de Quad dans le mode Story</t>
   </si>
 </sst>
 </file>
@@ -657,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1134,86 @@
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Succes.xlsx
+++ b/Succes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Plus que 999 heures de jeux</t>
   </si>
@@ -114,39 +114,15 @@
     <t>Passez votre première 16 pieds.</t>
   </si>
   <si>
-    <t>Il connait les flèches par coeur ?</t>
-  </si>
-  <si>
     <t>Passez votre première 17 pieds.</t>
   </si>
   <si>
-    <t>Vraiment corriace</t>
-  </si>
-  <si>
-    <t>Passez votre première 18 pieds.</t>
-  </si>
-  <si>
-    <t>L'élite</t>
-  </si>
-  <si>
-    <t>Passez votre première 19 pieds.</t>
-  </si>
-  <si>
     <t>Et maintenant c'est qui le lion ?</t>
   </si>
   <si>
-    <t>Passez votre première 20 pieds.</t>
-  </si>
-  <si>
-    <t>Ce fut long et dur</t>
-  </si>
-  <si>
     <t>Passez une chanson de plus de 500 steps</t>
   </si>
   <si>
-    <t>La pente est forte</t>
-  </si>
-  <si>
     <t>Passez une chanson de plus de 1000 steps</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>Obtenez votre première médaille de bronze</t>
   </si>
   <si>
-    <t>Précision millimétré</t>
-  </si>
-  <si>
     <t>Obtenez votre première médaille d'argent</t>
   </si>
   <si>
@@ -276,12 +249,6 @@
     <t>Accumulez plus de 1000 combos</t>
   </si>
   <si>
-    <t>Accumulez plus de 10 000 combos</t>
-  </si>
-  <si>
-    <t>Accumulez plus de 100 000 combos</t>
-  </si>
-  <si>
     <t>Atteignez 1 000 000 de combos cumulés</t>
   </si>
   <si>
@@ -318,9 +285,6 @@
     <t>Obtenez 5 médailles de Quad</t>
   </si>
   <si>
-    <t>Obtenez 10 médailles de Quad</t>
-  </si>
-  <si>
     <t>Clear 50 chansons différentes</t>
   </si>
   <si>
@@ -354,9 +318,6 @@
     <t>Battez le boss 8</t>
   </si>
   <si>
-    <t>Finissez Cublast</t>
-  </si>
-  <si>
     <t>Obtenez toutes les médailles de bronze dans le mode Story</t>
   </si>
   <si>
@@ -367,6 +328,174 @@
   </si>
   <si>
     <t>Obtenez toutes les médailles de Quad dans le mode Story</t>
+  </si>
+  <si>
+    <t>Obtenez 3 médailles de Quad</t>
+  </si>
+  <si>
+    <t>Obtenez votre premier FFC</t>
+  </si>
+  <si>
+    <t>Emu aux larmes</t>
+  </si>
+  <si>
+    <t>Affrontez le boss de fin et finissez Cublast</t>
+  </si>
+  <si>
+    <t>Retourner affronter le boss de fin pour la 2eme fois</t>
+  </si>
+  <si>
+    <t>Obtenez la medaille de Quad du boss de fin</t>
+  </si>
+  <si>
+    <t>Récuperez 5 profiles de joueurs différents</t>
+  </si>
+  <si>
+    <t>Récuperez 10 profiles de joueurs différents</t>
+  </si>
+  <si>
+    <t>Battez le score d'un de vos amis en mode solo</t>
+  </si>
+  <si>
+    <t>Battez 10 scores de vos amis en mode solo</t>
+  </si>
+  <si>
+    <t>L'habitude</t>
+  </si>
+  <si>
+    <t>Accumulez plus de 100 000 combos cumulés</t>
+  </si>
+  <si>
+    <t>Accumulez plus de 10 000 combos cumulés</t>
+  </si>
+  <si>
+    <t>Le million</t>
+  </si>
+  <si>
+    <t>La petite star</t>
+  </si>
+  <si>
+    <t>Pas de secret</t>
+  </si>
+  <si>
+    <t>Fini de rire</t>
+  </si>
+  <si>
+    <t>La starlette</t>
+  </si>
+  <si>
+    <t>La superstar</t>
+  </si>
+  <si>
+    <t>La légende</t>
+  </si>
+  <si>
+    <t>Continuer la légende</t>
+  </si>
+  <si>
+    <t>Ecrire la légende</t>
+  </si>
+  <si>
+    <t>VIP de Cublast</t>
+  </si>
+  <si>
+    <t>La maitrise</t>
+  </si>
+  <si>
+    <t>Plus de doute</t>
+  </si>
+  <si>
+    <t>Mélomane</t>
+  </si>
+  <si>
+    <t>Curieux</t>
+  </si>
+  <si>
+    <t>4Go sur le disque dur</t>
+  </si>
+  <si>
+    <t>Les bonnes choses ont une fin</t>
+  </si>
+  <si>
+    <t>Les mauvaises choses ont une fin</t>
+  </si>
+  <si>
+    <t>Toutes les choses ont une fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sauvegarde du forum </t>
+  </si>
+  <si>
+    <t>La paix du forum</t>
+  </si>
+  <si>
+    <t>Le règne sur le forum</t>
+  </si>
+  <si>
+    <t>Le maitre du forum</t>
+  </si>
+  <si>
+    <t>Affrontez 1 ami en mode online en même temps</t>
+  </si>
+  <si>
+    <t>Affrontez 3 amis en mode online en même temps</t>
+  </si>
+  <si>
+    <t>Joueur social</t>
+  </si>
+  <si>
+    <t>Ramenez vous les potes</t>
+  </si>
+  <si>
+    <t>Faire passer le fun</t>
+  </si>
+  <si>
+    <t>La communauté</t>
+  </si>
+  <si>
+    <t>Mise à jour</t>
+  </si>
+  <si>
+    <t>Le gout du combat</t>
+  </si>
+  <si>
+    <t>Le gout de la compétition</t>
+  </si>
+  <si>
+    <t>Vétéran du clavier</t>
+  </si>
+  <si>
+    <t>Précision millimétrée</t>
+  </si>
+  <si>
+    <t>La consécration</t>
+  </si>
+  <si>
+    <t>Gagnez un match contre un ami alors qu'il a fait un full combo</t>
+  </si>
+  <si>
+    <t>Toutes les avoir ne suffit pas</t>
+  </si>
+  <si>
+    <t>En voilà une longue !</t>
+  </si>
+  <si>
+    <t>Plus de 1000 pas</t>
+  </si>
+  <si>
+    <t>Mettez à jour le profil d'un joueur que vous aviez déjà</t>
+  </si>
+  <si>
+    <t>Debloquez toutes les chansons cachées</t>
+  </si>
+  <si>
+    <t>Sherlock</t>
+  </si>
+  <si>
+    <t>Finissez toutes les chansons challenges</t>
+  </si>
+  <si>
+    <t>Challenger</t>
   </si>
 </sst>
 </file>
@@ -705,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,373 +976,522 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>116</v>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Succes.xlsx
+++ b/Succes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="16515" windowHeight="6210"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
-  <si>
-    <t>Plus que 999 heures de jeux</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Passez votre première chanson !</t>
   </si>
@@ -216,9 +213,6 @@
     <t>Premiers pas</t>
   </si>
   <si>
-    <t>Accumulez 500% de score</t>
-  </si>
-  <si>
     <t>Accumulez plus de 10 000% de score</t>
   </si>
   <si>
@@ -246,42 +240,24 @@
     <t>Accumulez plus de 200 000% de score</t>
   </si>
   <si>
-    <t>Accumulez plus de 1000 combos</t>
-  </si>
-  <si>
-    <t>Atteignez 1 000 000 de combos cumulés</t>
-  </si>
-  <si>
     <t>Obtenez 5 médailles de bronze ou superieur</t>
   </si>
   <si>
     <t>Obtenez 20 médailles de bronze  ou superieur</t>
   </si>
   <si>
-    <t>Obtenez 100 médailles de bronze  ou superieur</t>
-  </si>
-  <si>
     <t>Obtenez 5 médailles d'argent  ou superieur</t>
   </si>
   <si>
     <t>Obtenez 20 médailles d'argent  ou superieur</t>
   </si>
   <si>
-    <t>Obtenez 100 médailles d'argent  ou superieur</t>
-  </si>
-  <si>
     <t>Obtenez 5 médaille d'or  ou superieur</t>
   </si>
   <si>
-    <t>Obtenez 10 médailles d'or  ou superieur</t>
-  </si>
-  <si>
     <t>Obtenez 50 médailles d'or  ou superieur</t>
   </si>
   <si>
-    <t>Obtenez 2 médaille de Quad</t>
-  </si>
-  <si>
     <t>Obtenez 5 médailles de Quad</t>
   </si>
   <si>
@@ -363,15 +339,6 @@
     <t>L'habitude</t>
   </si>
   <si>
-    <t>Accumulez plus de 100 000 combos cumulés</t>
-  </si>
-  <si>
-    <t>Accumulez plus de 10 000 combos cumulés</t>
-  </si>
-  <si>
-    <t>Le million</t>
-  </si>
-  <si>
     <t>La petite star</t>
   </si>
   <si>
@@ -496,13 +463,316 @@
   </si>
   <si>
     <t>Challenger</t>
+  </si>
+  <si>
+    <t>Treize à la centaine</t>
+  </si>
+  <si>
+    <t>Atteignez les 100 combos dans une chanson</t>
+  </si>
+  <si>
+    <t>Accumulez plus de 10 000 combos cumulés max</t>
+  </si>
+  <si>
+    <t>Accumulez plus de 100 000 combos cumulés max</t>
+  </si>
+  <si>
+    <t>Atteignez 500 000 de combos cumulés max</t>
+  </si>
+  <si>
+    <t>Le demi-million</t>
+  </si>
+  <si>
+    <t>Roi de la colline</t>
+  </si>
+  <si>
+    <t>Plus que 999 heures de jeu</t>
+  </si>
+  <si>
+    <t>Bien dans le rythme</t>
+  </si>
+  <si>
+    <t>A fond dans le rythme</t>
+  </si>
+  <si>
+    <t>Obtenez 10 A ou superieur</t>
+  </si>
+  <si>
+    <t>Roi du rythme</t>
+  </si>
+  <si>
+    <t>Star du rythme</t>
+  </si>
+  <si>
+    <t>Obtenez 10 S ou superieur</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>En bonne santé</t>
+  </si>
+  <si>
+    <t>Finissez une chanson avec votre vie au maximum</t>
+  </si>
+  <si>
+    <t>Allo, pital ?</t>
+  </si>
+  <si>
+    <t>Finissez une chanson avec votre vie sous la barre des 25%</t>
+  </si>
+  <si>
+    <t>Presque mort</t>
+  </si>
+  <si>
+    <t>Finissez une chanson avec votre vie sous la barre des 5%</t>
+  </si>
+  <si>
+    <t>Trop de stress</t>
+  </si>
+  <si>
+    <t>J'ai glissé chef</t>
+  </si>
+  <si>
+    <t>Tombé de haut</t>
+  </si>
+  <si>
+    <t>Cassez le lien bleu pendant une partie</t>
+  </si>
+  <si>
+    <t>Cassez le lien jaune pendant une partie</t>
+  </si>
+  <si>
+    <t>Cassez un lien vert pendant une partie</t>
+  </si>
+  <si>
+    <t>Etat d'ébriété</t>
+  </si>
+  <si>
+    <t>Finissez une chanson avec 80% du temps passé sous la barre des 25% de vie</t>
+  </si>
+  <si>
+    <t>Cassez 10 liens dans une seule chanson</t>
+  </si>
+  <si>
+    <t>L'envie de mal faire</t>
+  </si>
+  <si>
+    <t>Il va faire tout noir</t>
+  </si>
+  <si>
+    <t>Jouez une partie en mode : No backgr., No UI, No Judge, No target, No score</t>
+  </si>
+  <si>
+    <t>Obtenez 50 A ou superieur</t>
+  </si>
+  <si>
+    <t>Obtenez 50 S ou superieur</t>
+  </si>
+  <si>
+    <t>Obtenez 50 médailles de bronze  ou superieur</t>
+  </si>
+  <si>
+    <t>Obtenez 50 médailles d'argent  ou superieur</t>
+  </si>
+  <si>
+    <t>Obtenez 20 médailles d'or  ou superieur</t>
+  </si>
+  <si>
+    <t>Un episode de Bleach</t>
+  </si>
+  <si>
+    <t>Revenir et clear une chanson dont le meilleur essai était un "Failed"</t>
+  </si>
+  <si>
+    <t>Finissez premier à l'issue d'un tournoi d'au moins 4 joueurs</t>
+  </si>
+  <si>
+    <t>Roi du duel</t>
+  </si>
+  <si>
+    <t>Finissez premier à l'issue d'un tournoi de moins de 4 joueurs</t>
+  </si>
+  <si>
+    <t>Accumulez 1 000% de score</t>
+  </si>
+  <si>
+    <t>Accumulez plus de 1 000 combos max</t>
+  </si>
+  <si>
+    <t>CrissCross</t>
+  </si>
+  <si>
+    <t>CrossOver</t>
+  </si>
+  <si>
+    <t>La petite star Expert</t>
+  </si>
+  <si>
+    <t>Pas de secret Expert</t>
+  </si>
+  <si>
+    <t>Fini de rire Expert</t>
+  </si>
+  <si>
+    <t>Obtenez 2 médailles de bronze ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 20 médailles de bronze  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 50 médailles de bronze  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>La starlette Expert</t>
+  </si>
+  <si>
+    <t>La maitrise Expert</t>
+  </si>
+  <si>
+    <t>VIP de Cublast Expert</t>
+  </si>
+  <si>
+    <t>Obtenez 5 médailles d'argent  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 20 médailles d'argent  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 50 médailles d'argent  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 3 médailles de Quad (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 5 médailles de Quad (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtenez 2 médaille de Quad </t>
+  </si>
+  <si>
+    <t>La superstar Expert</t>
+  </si>
+  <si>
+    <t>La consécration Expert</t>
+  </si>
+  <si>
+    <t>Plus de doute Expert</t>
+  </si>
+  <si>
+    <t>Obtenez 5 médaille d'or  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 20 médailles d'or  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez 50 médailles d'or  ou superieur (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>La légende Expert</t>
+  </si>
+  <si>
+    <t>Continuer la légende Expert</t>
+  </si>
+  <si>
+    <t>Ecrire la légende Expert</t>
+  </si>
+  <si>
+    <t>Obtenez 2 médaille de Quad  (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>J'ai taté les footswitch</t>
+  </si>
+  <si>
+    <t>J'ai maitrisé les footswitchs</t>
+  </si>
+  <si>
+    <t>CrossMonsieur</t>
+  </si>
+  <si>
+    <t>Obtenir une médaille de bronze ou superieur sur une chanson qui contient plus de 40 cross</t>
+  </si>
+  <si>
+    <t>Clear une chanson qui contient plus de 40 cross</t>
+  </si>
+  <si>
+    <t>Hommage au grand Matt</t>
+  </si>
+  <si>
+    <t>Clear une chanson qui contient plus de 30 footswitch</t>
+  </si>
+  <si>
+    <t>Obtenir une médaille de bronze ou superieur sur une chanson qui contient plus de 30 footswitch</t>
+  </si>
+  <si>
+    <t>Obtenir une médaille d'or ou superieur sur une chanson qui contient plus de 30 footswitch</t>
+  </si>
+  <si>
+    <t>Pressé</t>
+  </si>
+  <si>
+    <t>Obtenir une médaille d'or ou superieur sur une chanson qui contient plus de 40 cross</t>
+  </si>
+  <si>
+    <t>Pressé en chef</t>
+  </si>
+  <si>
+    <t>Citron pressé</t>
+  </si>
+  <si>
+    <t>Finissez une chanson dont le BPM affiché est superieur à 160 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille de bronze ou superieur sur une chanson dont le BPM affiché est superieur à 160 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille d'or ou superieur sur une chanson dont le BPM affiché est superieur à 160 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Finissez une chanson dont le BPM affiché est superieur à 190 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille de bronze ou superieur sur une chanson dont le BPM affiché est superieur à 190 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille d'or ou superieur sur une chanson dont le BPM affiché est superieur à 190 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Finissez une chanson dont le BPM affiché est superieur à 210 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille de bronze ou superieur sur une chanson dont le BPM affiché est superieur à 210 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Obtenez une medaille d'or ou superieur sur une chanson dont le BPM affiché est superieur à 210 (Level 9 ou +)</t>
+  </si>
+  <si>
+    <t>Le feu aux fesses</t>
+  </si>
+  <si>
+    <t>Un lance flamme dans les fesses</t>
+  </si>
+  <si>
+    <t>Nitro-fessier</t>
+  </si>
+  <si>
+    <t>L'épilepsie a du bon</t>
+  </si>
+  <si>
+    <t>L'épilepsie est un vilain défaut</t>
+  </si>
+  <si>
+    <t>Epilepsie maximum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +780,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -531,8 +844,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,668 +1161,1142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="106.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="8"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="10"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="10"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="10"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="10"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="10"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="8"/>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="9"/>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>246</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>141</v>
       </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="B134" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>143</v>
-      </c>
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>151</v>
+      <c r="B135" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Succes.xlsx
+++ b/Succes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="16515" windowHeight="6210"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Nom</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Coupe Enfer</t>
   </si>
   <si>
-    <t>Nombre de partie en enfer</t>
-  </si>
-  <si>
     <t>Passez des parties en Hellish</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Passez des parties en Hellish Expert</t>
   </si>
   <si>
-    <t>Nombre de partie en enfer expert</t>
-  </si>
-  <si>
     <t>Nombre de gold ou plus Expert</t>
   </si>
   <si>
@@ -274,6 +268,30 @@
   </si>
   <si>
     <t>Passez des parties en Hellish/Asian/Mortal Expert</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en enfer</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en enfer expert</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en asian</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en asian expert</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en mortel</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en mortal expert</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en tout</t>
+  </si>
+  <si>
+    <t>Niveau d'une song clear en tout expert</t>
   </si>
 </sst>
 </file>
@@ -643,15 +661,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -863,13 +881,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -909,13 +927,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -955,13 +973,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1001,13 +1019,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1119,69 +1137,183 @@
         <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">

--- a/Succes.xlsx
+++ b/Succes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="16515" windowHeight="6210"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>Nom</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Nombre de chansons jouées</t>
   </si>
   <si>
-    <t>Coupe du rythme</t>
-  </si>
-  <si>
-    <t>Coupe du challenge</t>
-  </si>
-  <si>
     <t>Cumulez les scores enregistrés</t>
   </si>
   <si>
@@ -292,6 +286,90 @@
   </si>
   <si>
     <t>Niveau d'une song clear en tout expert</t>
+  </si>
+  <si>
+    <t>Coupe Rythme</t>
+  </si>
+  <si>
+    <t>Coupe Challenge</t>
+  </si>
+  <si>
+    <t>Coupe Confrontation</t>
+  </si>
+  <si>
+    <t>Affrontez des joueurs en ligne</t>
+  </si>
+  <si>
+    <t>Nombre de partie online</t>
+  </si>
+  <si>
+    <t>Coupe Victoire</t>
+  </si>
+  <si>
+    <t>Coupe Free For All</t>
+  </si>
+  <si>
+    <t>Nombre de victoire</t>
+  </si>
+  <si>
+    <t>Coupe Tournoi Score</t>
+  </si>
+  <si>
+    <t>Remportez un tournoi score</t>
+  </si>
+  <si>
+    <t>Nombre de participant</t>
+  </si>
+  <si>
+    <t>Gagnez des matchs</t>
+  </si>
+  <si>
+    <t>Coupe Tournoi Point</t>
+  </si>
+  <si>
+    <t>Remportez un tournoi point</t>
+  </si>
+  <si>
+    <t>Coupe Elimination</t>
+  </si>
+  <si>
+    <t>Remportez une élimination</t>
+  </si>
+  <si>
+    <t>Sortez victorieux (non FFA)</t>
+  </si>
+  <si>
+    <t>Nombre de victoire finale</t>
+  </si>
+  <si>
+    <t>Coupe Victoire totale</t>
+  </si>
+  <si>
+    <t>Remportez un FFA à 8</t>
+  </si>
+  <si>
+    <t>Coupe Victoire assumée</t>
+  </si>
+  <si>
+    <t>Remportez un tournoi à 8</t>
+  </si>
+  <si>
+    <t>Coupe défi solo</t>
+  </si>
+  <si>
+    <t>Battez un score qui ne vous appartient pas</t>
+  </si>
+  <si>
+    <t>Nombre de score battus</t>
+  </si>
+  <si>
+    <t>Coupe sightread</t>
+  </si>
+  <si>
+    <t>Battez un score du premier coup sur une chanson jamais jouée</t>
+  </si>
+  <si>
+    <t>Nombre de scores battus</t>
   </si>
 </sst>
 </file>
@@ -662,13 +740,13 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,7 +798,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -743,13 +821,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -766,13 +844,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -789,13 +867,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -812,13 +890,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -835,13 +913,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -858,13 +936,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -881,13 +959,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -904,13 +982,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -927,13 +1005,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -950,13 +1028,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -973,13 +1051,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -996,13 +1074,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1019,13 +1097,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1042,13 +1120,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
       </c>
       <c r="D17">
         <v>10000</v>
@@ -1065,13 +1143,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
       </c>
       <c r="D18">
         <v>10000</v>
@@ -1088,13 +1166,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1111,13 +1189,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1134,13 +1212,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1157,13 +1235,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -1180,13 +1258,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1203,13 +1281,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>9</v>
@@ -1226,13 +1304,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1249,13 +1327,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1272,13 +1350,13 @@
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1295,13 +1373,13 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -1314,6 +1392,236 @@
       </c>
       <c r="G28">
         <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>200</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
